--- a/assets/downloadables/DCF_Form_3.xlsx
+++ b/assets/downloadables/DCF_Form_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Veriton M4660G\Downloads\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="form3" sheetId="1" r:id="rId1"/>
+    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>FORM 3 - BDSP REGISTRY</t>
   </si>
@@ -131,6 +132,55 @@
   </si>
   <si>
     <t>Tel/Cellphone number:</t>
+  </si>
+  <si>
+    <t>Input field</t>
+  </si>
+  <si>
+    <t>Guideline</t>
+  </si>
+  <si>
+    <t>Provide complete Business Address. (Format: Building, Street, Barangay, City/Municipality, Province)</t>
+  </si>
+  <si>
+    <t>Provide Full name. (example: Juan C. Dela Cruz)</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Office/Main Address</t>
+  </si>
+  <si>
+    <t>Provide valid Email Address</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Provide brief description</t>
+  </si>
+  <si>
+    <t>Brief Description of Company, Institution and/or Consultant Background</t>
+  </si>
+  <si>
+    <t>Provide name of RCU/PCU. (example: For Region: RCU 8 , For Province: PCU leyte)</t>
+  </si>
+  <si>
+    <t>RAPID Implementing Unit</t>
+  </si>
+  <si>
+    <t>Suppliers' Evaluation (Refer to ISO/Procurement ratings)</t>
+  </si>
+  <si>
+    <t>Refer to ISO Procurement ratings</t>
+  </si>
+  <si>
+    <t>Format: Agency, Title of Activity, Date and Venue (example: Dept. of Agriculture, Cacao Planting Techniques, January 10-12,2023, Davao City) 
+For multiple entries put numbering.</t>
+  </si>
+  <si>
+    <t>Other engagement outside RAPID</t>
   </si>
 </sst>
 </file>
@@ -183,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,11 +363,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +490,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -834,7 +940,7 @@
       <c r="Y3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="32"/>
+      <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -868,7 +974,7 @@
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="33"/>
+      <c r="Z4" s="43"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
@@ -1373,4 +1479,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="126.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/downloadables/DCF_Form_3.xlsx
+++ b/assets/downloadables/DCF_Form_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -233,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -485,9 +491,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,6 +519,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -800,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +946,7 @@
       <c r="Y3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="42"/>
+      <c r="Z3" s="41"/>
     </row>
     <row r="4" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -974,501 +980,501 @@
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="43"/>
+      <c r="Z4" s="42"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="43">
         <v>0</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="43">
         <v>2</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="43">
         <v>3</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="43">
         <v>4</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="43">
         <v>5</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="43">
         <v>6</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="43">
         <v>7</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="43">
         <v>8</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="43">
         <v>9</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="43">
         <v>10</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="43">
         <v>11</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="43">
         <v>12</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="43">
         <v>13</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="43">
         <v>14</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="43">
         <v>15</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="43">
         <v>16</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="43">
         <v>17</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="43">
         <v>18</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="43">
         <v>19</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="43">
         <v>20</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="43">
         <v>21</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="43">
         <v>22</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="43">
         <v>23</v>
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
@@ -1496,72 +1502,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/downloadables/DCF_Form_3.xlsx
+++ b/assets/downloadables/DCF_Form_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>FORM 3 - BDSP REGISTRY</t>
   </si>
@@ -182,12 +182,74 @@
   <si>
     <t>Other engagement outside RAPID</t>
   </si>
+  <si>
+    <t>Types of BDSP</t>
+  </si>
+  <si>
+    <t>Select one ( Organization/Firm, Individual) if Organization/Firm selected add the Full Name of Organization/Firm 
+(based on official business registration) (ex. Organization/Firm, sample text)</t>
+  </si>
+  <si>
+    <t>You can select multiple (Agri-technical, Entrepreneurial, Organizational, Extension Service)</t>
+  </si>
+  <si>
+    <t>Field of Expertise</t>
+  </si>
+  <si>
+    <t>Preferred Region to work in for RAPID</t>
+  </si>
+  <si>
+    <t>Select one (Region Vlll - Eastern Visayas,Region lX - Zamboanga Peninsula,Region X - Northern Mindanao,Region Xl - Davao Region,
+Region Xll - SOCCSKSARGEN,Region Xlll - Caraga, BARMM - Bangsamoro Autonomous Region in Muslim Mindanao)</t>
+  </si>
+  <si>
+    <t>Preferred Province to work in for RAPID</t>
+  </si>
+  <si>
+    <t>You can select multiple (Northern Samar,Leyte,Southern Leyte,Zamboanga del Norte,Zamboanga Sibugay,Zamboanga del Sur,Misamis Oriental,Bukidnon,Lanao del Norte,Davao de Oro,Davao Oriental,Davao del Norte,Davao del Sur,Davao Occidental,North Cotabato,Sultan Kudarat,Sarangani,Agusan del Norte,Agusan del Sur,Surigao del Sur,Maguindanao)</t>
+  </si>
+  <si>
+    <t>BDSP Team Composition (10-13)</t>
+  </si>
+  <si>
+    <t>Add comma for multiple entries (ex. sample text1, sample text2, sample text3)</t>
+  </si>
+  <si>
+    <t>Prior RAPID Engagements</t>
+  </si>
+  <si>
+    <t>Select one (Yes, No)</t>
+  </si>
+  <si>
+    <t>Type/Nature of Engagements</t>
+  </si>
+  <si>
+    <t>Select one (Resource person,Facilitator, Manual Development, Business Plan Preparation, KM Product Development)</t>
+  </si>
+  <si>
+    <t>Willing to conduct on-line lecture/training/seminar</t>
+  </si>
+  <si>
+    <t>Willing to develop modular video training materials</t>
+  </si>
+  <si>
+    <t>Willing to join other providers as organize pool of service providers</t>
+  </si>
+  <si>
+    <t>Willing to be a mentor/coach on demand basis</t>
+  </si>
+  <si>
+    <t>Willing to be part of long-term engagement for extension service facilitation</t>
+  </si>
+  <si>
+    <t>Select one (RED,PLATINUM,UNREGISTERED)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +290,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -397,11 +466,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,15 +596,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,7 +900,7 @@
   <dimension ref="A2:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,76 +1076,76 @@
       <c r="Z4" s="42"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="40">
         <v>0</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="40">
         <v>1</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="40">
         <v>2</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="40">
         <v>3</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="40">
         <v>4</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="40">
         <v>5</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="40">
         <v>6</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="40">
         <v>7</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="40">
         <v>8</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="40">
         <v>9</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="40">
         <v>10</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="40">
         <v>11</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="40">
         <v>12</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="40">
         <v>13</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="40">
         <v>14</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="40">
         <v>15</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="40">
         <v>16</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="40">
         <v>17</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="40">
         <v>18</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="40">
         <v>19</v>
       </c>
-      <c r="U5" s="43">
+      <c r="U5" s="40">
         <v>20</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="40">
         <v>21</v>
       </c>
-      <c r="W5" s="43">
+      <c r="W5" s="40">
         <v>22</v>
       </c>
-      <c r="X5" s="43">
+      <c r="X5" s="40">
         <v>23</v>
       </c>
       <c r="Y5" s="5"/>
@@ -1489,15 +1582,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="68.7109375" customWidth="1"/>
     <col min="2" max="2" width="126.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1509,65 +1602,165 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B3" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="4" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B4" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B5" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B6" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B12" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B14" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+    <row r="15" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B15" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/downloadables/DCF_Form_3.xlsx
+++ b/assets/downloadables/DCF_Form_3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97BBEF5-B5B2-456B-945C-A460E7436810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form3" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>FORM 3 - BDSP REGISTRY</t>
   </si>
@@ -244,12 +245,15 @@
   <si>
     <t>Select one (RED,PLATINUM,UNREGISTERED)</t>
   </si>
+  <si>
+    <t>Name of BDSP:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +301,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,9 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,13 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -616,6 +617,18 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,155 +909,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="34" style="9" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="24" style="9" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="32.42578125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="31.85546875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="37.140625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="42.42578125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="38.42578125" style="9" customWidth="1"/>
-    <col min="23" max="23" width="38.28515625" style="9" customWidth="1"/>
-    <col min="24" max="24" width="24" style="9" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="26.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="34" style="9" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="24" style="9" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="27.7109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="9" customWidth="1"/>
+    <col min="21" max="21" width="37.140625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="42.42578125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="38.42578125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="38.28515625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="24" style="9" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="P3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="S3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="X3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="Y3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Z3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="41"/>
-    </row>
-    <row r="4" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
+      <c r="AA3" s="48"/>
+    </row>
+    <row r="4" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -1052,536 +1070,558 @@
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
+      <c r="S4" s="27"/>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
       <c r="V4" s="28"/>
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="42"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="49"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
         <v>0</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>2</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>3</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>4</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>5</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>6</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <v>7</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>8</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="39">
         <v>9</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <v>10</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="39">
         <v>11</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="39">
         <v>12</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="39">
         <v>13</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="39">
         <v>14</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="39">
         <v>15</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="39">
         <v>16</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="39">
         <v>17</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="39">
         <v>18</v>
       </c>
-      <c r="T5" s="40">
+      <c r="T5" s="39">
         <v>19</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="39">
         <v>20</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V5" s="39">
         <v>21</v>
       </c>
-      <c r="W5" s="40">
+      <c r="W5" s="39">
         <v>22</v>
       </c>
-      <c r="X5" s="40">
+      <c r="X5" s="39">
         <v>23</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="Y5" s="39">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="39">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1595,170 +1635,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>64</v>
       </c>
     </row>

--- a/assets/downloadables/DCF_Form_3.xlsx
+++ b/assets/downloadables/DCF_Form_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97BBEF5-B5B2-456B-945C-A460E7436810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E183ED-1A2E-4B73-A270-92406489C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form3" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>FORM 3 - BDSP REGISTRY</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Name of BDSP:</t>
+  </si>
+  <si>
+    <t>(For organization/firm BDSPs, input the name of BDSP. For individuals, leave it blank)</t>
   </si>
 </sst>
 </file>
@@ -618,9 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,6 +628,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -913,12 +916,12 @@
   <dimension ref="A2:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="9" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="9" customWidth="1"/>
@@ -982,8 +985,8 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1057,10 +1060,12 @@
       <c r="Z3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="48"/>
-    </row>
-    <row r="4" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="AA3" s="47"/>
+    </row>
+    <row r="4" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
       <c r="D4" s="24"/>
@@ -1092,7 +1097,7 @@
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="49"/>
+      <c r="AA4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
